--- a/PYTHON/01-useranlegen/outputfilename.xlsx
+++ b/PYTHON/01-useranlegen/outputfilename.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>a=(._!)</t>
+          <t>a(!)-&amp;&amp;</t>
         </is>
       </c>
     </row>
@@ -453,7 +453,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>a_&amp;,),-</t>
+          <t>a%%.=%&amp;</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>a=#(.&amp;.</t>
+          <t>a#)!-^)</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>a#&amp;^%^^</t>
+          <t>a=.(!,#</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>a=_!=^)</t>
+          <t>a=(,%!,</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>a,.,(##</t>
+          <t>a!^&amp;-,-</t>
         </is>
       </c>
     </row>
@@ -513,7 +513,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>a!%(&amp;&amp;_</t>
+          <t>a.&amp;-%,)</t>
         </is>
       </c>
     </row>
@@ -525,7 +525,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>a!)).)!</t>
+          <t>a&amp;,_%!^</t>
         </is>
       </c>
     </row>
@@ -537,7 +537,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>a-(%!,&amp;</t>
+          <t>a%(&amp;()^</t>
         </is>
       </c>
     </row>
@@ -549,7 +549,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>a&amp;!_-_-</t>
+          <t>a%=)^_,</t>
         </is>
       </c>
     </row>
@@ -561,7 +561,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>a_!%=,!</t>
+          <t>a(),.,-</t>
         </is>
       </c>
     </row>
@@ -573,7 +573,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>a,(&amp;,,!</t>
+          <t>a%=,#),</t>
         </is>
       </c>
     </row>
@@ -585,7 +585,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>a_#!.%=</t>
+          <t>a))=-&amp;)</t>
         </is>
       </c>
     </row>
@@ -597,7 +597,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>a#!%(%^</t>
+          <t>a,-^..%</t>
         </is>
       </c>
     </row>
@@ -609,7 +609,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>a=&amp;#!&amp;(</t>
+          <t>a.!-^%#</t>
         </is>
       </c>
     </row>
@@ -621,7 +621,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>a_#^.,_</t>
+          <t>a!^)_!#</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>a%)^-&amp;#</t>
+          <t>a=_.,%!</t>
         </is>
       </c>
     </row>
@@ -645,7 +645,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>a)-(#!,</t>
+          <t>a==-!&amp;#</t>
         </is>
       </c>
     </row>
@@ -657,7 +657,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>a,%%&amp;)!</t>
+          <t>a_%-&amp;%^</t>
         </is>
       </c>
     </row>
@@ -669,7 +669,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>a(_&amp;&amp;!_</t>
+          <t>a._==,-</t>
         </is>
       </c>
     </row>
@@ -681,7 +681,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>a,=!#&amp;=</t>
+          <t>a#,,(_#</t>
         </is>
       </c>
     </row>
@@ -693,7 +693,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>a-&amp;,(..</t>
+          <t>a(,#%#.</t>
         </is>
       </c>
     </row>
@@ -705,7 +705,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>a-=(!,.</t>
+          <t>a-_))!#</t>
         </is>
       </c>
     </row>
@@ -717,7 +717,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>a#,%^(%</t>
+          <t>a^-=-(^</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>a)_=...</t>
+          <t>a&amp;#,^(^</t>
         </is>
       </c>
     </row>
@@ -741,7 +741,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>a.!-=)^</t>
+          <t>a(=!==,</t>
         </is>
       </c>
     </row>
@@ -753,7 +753,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>a#=#,-^</t>
+          <t>a%.=(&amp;^</t>
         </is>
       </c>
     </row>
@@ -765,7 +765,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>a-_^-!_</t>
+          <t>a%-(()(</t>
         </is>
       </c>
     </row>
@@ -777,7 +777,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>a(,-,)#</t>
+          <t>a_%.,%%</t>
         </is>
       </c>
     </row>
@@ -789,7 +789,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>a^=-#&amp;,</t>
+          <t>a_=%)!!</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>a!=&amp;#,_</t>
+          <t>a=(.#%_</t>
         </is>
       </c>
     </row>
@@ -813,7 +813,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>a#,,.!&amp;</t>
+          <t>a=-^%=_</t>
         </is>
       </c>
     </row>
@@ -825,7 +825,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>a#-!^=,</t>
+          <t>a_^#(#^</t>
         </is>
       </c>
     </row>
@@ -837,43 +837,43 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>a(^=&amp;=#</t>
+          <t>a._&amp;(%!</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>pinsky1</t>
+          <t>Pinsky1</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>a&amp;=&amp;(_(</t>
+          <t>a.&amp;_%.)</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>pinsky2</t>
+          <t>Pinsky2</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>a_!##-=</t>
+          <t>a_=!,&amp;.</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>pinsky3</t>
+          <t>Pinsky3</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>a^&amp;#&amp;.)</t>
+          <t>a=^_%(^</t>
         </is>
       </c>
     </row>
@@ -885,7 +885,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>a-#-^-)</t>
+          <t>a%_-,((</t>
         </is>
       </c>
     </row>
@@ -897,7 +897,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>a-,-%__</t>
+          <t>a&amp;.((%)</t>
         </is>
       </c>
     </row>
